--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_0_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2071030.783613164</v>
+        <v>-2073028.456626007</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>526360.6466979377</v>
+        <v>415577.6531023112</v>
       </c>
     </row>
     <row r="8">
@@ -665,16 +665,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -704,13 +704,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>78.91474961495958</v>
+        <v>121.0482950530909</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>105.2930060528839</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>240.1886618008508</v>
       </c>
     </row>
     <row r="3">
@@ -820,13 +820,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>50.28788303971709</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>110.0115294480441</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -902,13 +902,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>394.7452989739926</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.3748712295539</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1066,16 +1066,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>70.03418953493004</v>
+        <v>81.28380243832471</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>188.5970350096846</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,10 +1142,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>167.3968033464747</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>54.89632529172481</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>102.6951623564298</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1579,7 +1579,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>176.2321875508322</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1588,10 +1588,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>206.1273786839848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1771,13 +1771,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>130.8636020495568</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>146.278729911946</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560522</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>112.1489577631704</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>118.9955446623092</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
-        <v>208.4827883385011</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
         <v>251.078595249801</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>108.3315462922372</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2296,7 +2296,7 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2375,7 +2375,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G25" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H25" t="n">
-        <v>80.7819382378954</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I25" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2530,7 +2530,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373707</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463132</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="29">
@@ -2807,10 +2807,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113166</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539625</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689361</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3041,13 +3041,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,22 +3187,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G34" t="n">
         <v>98.36167833373693</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
         <v>42.28735533463133</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3278,13 +3278,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H35" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857166</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789543</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463127</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415255</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,7 +3478,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3521,7 +3521,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3563,13 +3563,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3679,7 +3679,7 @@
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S40" t="n">
-        <v>129.7889198539629</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T40" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689361</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3952,19 +3952,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689372</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="44">
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373713</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4189,19 +4189,19 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689363</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1738.389234072494</v>
+        <v>1261.831893336434</v>
       </c>
       <c r="C2" t="n">
-        <v>1369.426717132083</v>
+        <v>892.8693763960225</v>
       </c>
       <c r="D2" t="n">
-        <v>1011.161018525332</v>
+        <v>534.603677789272</v>
       </c>
       <c r="E2" t="n">
-        <v>625.3727659270879</v>
+        <v>534.603677789272</v>
       </c>
       <c r="F2" t="n">
-        <v>625.3727659270879</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4328,13 +4328,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.408533250777</v>
+        <v>2574.87808591409</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.408533250777</v>
+        <v>2574.87808591409</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.345645907206</v>
+        <v>2243.815198570519</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.345645907206</v>
+        <v>1891.046543300405</v>
       </c>
       <c r="X2" t="n">
-        <v>2124.989074136616</v>
+        <v>1891.046543300405</v>
       </c>
       <c r="Y2" t="n">
-        <v>2124.989074136616</v>
+        <v>1648.431733400556</v>
       </c>
     </row>
     <row r="3">
@@ -4401,7 +4401,7 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,13 +4419,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1851.37379586972</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2291.509718890064</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2627.754532504893</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>210.7222632714565</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="C4" t="n">
-        <v>210.7222632714565</v>
+        <v>252.6519168570173</v>
       </c>
       <c r="D4" t="n">
-        <v>210.7222632714565</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>210.7222632714565</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694738</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714565</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.7222632714565</v>
+        <v>252.6519168570173</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1387.069036214947</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="C5" t="n">
-        <v>1018.106519274536</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="D5" t="n">
-        <v>1018.106519274536</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>1017.127487841138</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>606.14158305153</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V5" t="n">
-        <v>1881.118241157406</v>
+        <v>2112.324418312743</v>
       </c>
       <c r="W5" t="n">
-        <v>1881.118241157406</v>
+        <v>1759.555763042629</v>
       </c>
       <c r="X5" t="n">
-        <v>1773.668876279069</v>
+        <v>1386.090004781549</v>
       </c>
       <c r="Y5" t="n">
-        <v>1773.668876279069</v>
+        <v>1386.090004781549</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102424006</v>
@@ -4659,28 +4659,28 @@
         <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
         <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>124.6845874112029</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="C7" t="n">
-        <v>124.6845874112029</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="D7" t="n">
-        <v>124.6845874112029</v>
+        <v>350.7041574627004</v>
       </c>
       <c r="E7" t="n">
-        <v>124.6845874112029</v>
+        <v>350.7041574627004</v>
       </c>
       <c r="F7" t="n">
-        <v>124.6845874112029</v>
+        <v>350.7041574627004</v>
       </c>
       <c r="G7" t="n">
-        <v>124.6845874112029</v>
+        <v>181.7043572010328</v>
       </c>
       <c r="H7" t="n">
-        <v>124.6845874112029</v>
+        <v>181.7043572010328</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>579.9823256406185</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>352.6741383092202</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U7" t="n">
-        <v>352.6741383092202</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="V7" t="n">
-        <v>352.6741383092202</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="W7" t="n">
-        <v>352.6741383092202</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="X7" t="n">
-        <v>124.6845874112029</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="Y7" t="n">
-        <v>124.6845874112029</v>
+        <v>500.8207968750362</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1134.473993239633</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="C8" t="n">
-        <v>1134.473993239633</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D8" t="n">
-        <v>776.2082946328824</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>390.4200420346381</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>221.3323618866839</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
         <v>207.4089578252748</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2247.308246834948</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>1894.539591564834</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X8" t="n">
-        <v>1521.073833303755</v>
+        <v>1970.914677487028</v>
       </c>
       <c r="Y8" t="n">
-        <v>1521.073833303755</v>
+        <v>1970.914677487028</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
         <v>53.94298182036445</v>
@@ -4899,25 +4899,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>257.3069090307624</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="C10" t="n">
-        <v>257.3069090307624</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="D10" t="n">
-        <v>257.3069090307624</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="E10" t="n">
-        <v>109.3938154483693</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="F10" t="n">
-        <v>109.3938154483693</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>594.9795778313392</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="W10" t="n">
-        <v>438.9553738610022</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="X10" t="n">
-        <v>438.9553738610022</v>
+        <v>380.6911546495019</v>
       </c>
       <c r="Y10" t="n">
-        <v>438.9553738610022</v>
+        <v>380.6911546495019</v>
       </c>
     </row>
     <row r="11">
@@ -5024,25 +5024,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5124,22 +5124,22 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>904.39166832551</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M12" t="n">
-        <v>1211.711801605472</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N12" t="n">
-        <v>2016.123379869623</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O12" t="n">
-        <v>2135.190598349773</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>392.0201325405893</v>
+        <v>542.438140992646</v>
       </c>
       <c r="C13" t="n">
-        <v>392.0201325405893</v>
+        <v>542.438140992646</v>
       </c>
       <c r="D13" t="n">
-        <v>392.0201325405893</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>244.1070389581962</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5227,22 +5227,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T13" t="n">
-        <v>1298.996260473455</v>
+        <v>1120.983949816048</v>
       </c>
       <c r="U13" t="n">
-        <v>1009.867621687013</v>
+        <v>831.8553110296066</v>
       </c>
       <c r="V13" t="n">
-        <v>1009.867621687013</v>
+        <v>831.8553110296066</v>
       </c>
       <c r="W13" t="n">
-        <v>801.6581482688464</v>
+        <v>542.438140992646</v>
       </c>
       <c r="X13" t="n">
-        <v>573.668597370829</v>
+        <v>542.438140992646</v>
       </c>
       <c r="Y13" t="n">
-        <v>573.668597370829</v>
+        <v>542.438140992646</v>
       </c>
     </row>
     <row r="14">
@@ -5261,10 +5261,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
         <v>488.193237080547</v>
@@ -5276,25 +5276,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5361,19 +5361,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L15" t="n">
-        <v>904.39166832551</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M15" t="n">
-        <v>1211.711801605471</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N15" t="n">
-        <v>1541.574429269504</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O15" t="n">
-        <v>2145.820610447073</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5461,25 +5461,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1366.730813942188</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1366.730813942188</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U16" t="n">
-        <v>1077.602175155747</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V16" t="n">
-        <v>1077.602175155747</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W16" t="n">
-        <v>788.1850051187861</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X16" t="n">
-        <v>560.1954542207687</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y16" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,37 +5489,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5531,34 +5531,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>904.39166832551</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1224.726987855212</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N18" t="n">
-        <v>2029.138566119362</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2277.891980203325</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2460.535457816676</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,46 +5647,46 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>693.7762810288177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C19" t="n">
-        <v>524.8400981009108</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D19" t="n">
-        <v>524.8400981009108</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E19" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557902</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>1498.916270557902</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>1385.634495039548</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>1096.217325002588</v>
+        <v>385.5899330013836</v>
       </c>
       <c r="X19" t="n">
-        <v>1096.217325002588</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="Y19" t="n">
-        <v>875.4247458590575</v>
+        <v>265.3924131404652</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,25 +5735,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5768,16 +5768,16 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
         <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.325632214049</v>
+        <v>904.39166832551</v>
       </c>
       <c r="M21" t="n">
-        <v>1541.916528628193</v>
+        <v>1224.726987855212</v>
       </c>
       <c r="N21" t="n">
-        <v>1886.437184265811</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O21" t="n">
-        <v>2135.190598349773</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,46 +5884,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>468.5954956259882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>468.5954956259882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>468.5954956259882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>468.5954956259882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1275.130855347408</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>986.0022165609662</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>986.0022165609662</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>696.5850465240055</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>468.5954956259882</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>468.5954956259882</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5966,34 +5966,34 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6005,28 +6005,28 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6054,34 +6054,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571608</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1819.161927111988</v>
+        <v>1847.655958041207</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>2192.176613678825</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P24" t="n">
         <v>2623.573505376138</v>
@@ -6124,16 +6124,16 @@
         <v>659.4602391108332</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G25" t="n">
         <v>221.5295092103129</v>
@@ -6142,7 +6142,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>177.05035515254</v>
@@ -6151,7 +6151,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,10 +6166,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R25" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S25" t="n">
         <v>1865.165908942116</v>
@@ -6215,46 +6215,46 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
         <v>4262.3578574653</v>
@@ -6291,40 +6291,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>508.1073603047985</v>
+        <v>636.1761237414347</v>
       </c>
       <c r="L27" t="n">
-        <v>649.7480011519469</v>
+        <v>1250.073193498323</v>
       </c>
       <c r="M27" t="n">
-        <v>970.0833206816487</v>
+        <v>1570.408513028025</v>
       </c>
       <c r="N27" t="n">
-        <v>1774.494898945799</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O27" t="n">
-        <v>2023.248313029762</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
-        <v>2543.548934765509</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G28" t="n">
         <v>221.5295092103129</v>
@@ -6388,7 +6388,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="29">
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805458</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
@@ -6479,34 +6479,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6537,31 +6537,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571608</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1288.325632214049</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>2056.693778606511</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N30" t="n">
-        <v>2069.080661879162</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O30" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E31" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6616,7 +6616,7 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6643,28 +6643,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S31" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T31" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6677,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6686,43 +6686,43 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C33" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D33" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E33" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
         <v>358.2718071316295</v>
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>417.5524109899877</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N33" t="n">
-        <v>1221.963989254138</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O33" t="n">
-        <v>1891.427750556797</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2411.728372292545</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6813,7 +6813,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V33" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W33" t="n">
         <v>1571.258395043133</v>
@@ -6853,13 +6853,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
         <v>709.8489468649691</v>
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G35" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
         <v>358.2718071316295</v>
@@ -7014,28 +7014,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>97.21709146028587</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>97.21709146028587</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>417.5524109899877</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N36" t="n">
-        <v>1221.963989254138</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2201.935021465331</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7050,7 +7050,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
         <v>1571.258395043133</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
         <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7132,13 +7132,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045208</v>
+        <v>924.2611010045201</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7169,49 +7169,49 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X38" t="n">
         <v>3205.060556590537</v>
@@ -7248,31 +7248,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>323.6581146605672</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N39" t="n">
-        <v>1128.069692924718</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O39" t="n">
-        <v>1797.533454227377</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7309,7 +7309,7 @@
         <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
         <v>478.0475988506728</v>
@@ -7321,19 +7321,19 @@
         <v>320.8847398504515</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7385,7 +7385,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
@@ -7394,22 +7394,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
         <v>889.2841917514085</v>
@@ -7445,16 +7445,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>323.6581146605672</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605672</v>
+        <v>1778.261399527878</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>2122.782055165496</v>
       </c>
       <c r="O42" t="n">
-        <v>1797.533454227377</v>
+        <v>2371.535469249458</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L43" t="n">
         <v>709.8489468649691</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="44">
@@ -7625,34 +7625,34 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822457</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7725,19 +7725,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>463.2137177573978</v>
+        <v>435.8912381133352</v>
       </c>
       <c r="M45" t="n">
-        <v>783.5490372870996</v>
+        <v>1204.259384505797</v>
       </c>
       <c r="N45" t="n">
-        <v>1128.069692924718</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O45" t="n">
         <v>1797.533454227377</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7810,7 +7810,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7825,13 +7825,13 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
   </sheetData>
@@ -8307,10 +8307,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783519</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415591</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8772,19 +8772,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>288.4091825776757</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
@@ -9012,19 +9012,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>327.9859757160323</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9486,7 +9486,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>398.2864545423651</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
         <v>479.3423743435536</v>
@@ -9495,10 +9495,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9729,10 +9729,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -9957,7 +9957,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>281.6257341709332</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9969,10 +9969,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10200,7 +10200,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>143.8537153890416</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10209,7 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,13 +10443,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,10 +10665,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10902,13 +10902,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>367.2826860427847</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>367.2826860427847</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11379,7 +11379,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>340.2467274008334</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -22556,10 +22556,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>264.4380946255852</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>146.0492768552028</v>
       </c>
     </row>
     <row r="3">
@@ -22702,19 +22702,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>98.32758997849527</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>35.40951857488713</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22723,7 +22723,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -22759,10 +22759,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -23431,7 +23431,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23467,7 +23467,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>45.31537350755707</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,10 +23476,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>80.39561965260623</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23659,13 +23659,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23701,25 +23701,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>67.05720793404643</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>75.26883114644326</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>139.9886855606576</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>106.714110726728</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>37.08950173069407</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -26323,16 +26323,16 @@
         <v>19551.45298688544</v>
       </c>
       <c r="F2" t="n">
-        <v>19551.45298688543</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="G2" t="n">
-        <v>19551.45298688543</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="H2" t="n">
-        <v>19551.45298688543</v>
+        <v>19551.45298688544</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660709</v>
+        <v>20526.04424660712</v>
       </c>
       <c r="J2" t="n">
         <v>20526.04424660713</v>
@@ -26341,19 +26341,19 @@
         <v>20526.0442466071</v>
       </c>
       <c r="L2" t="n">
+        <v>20526.04424660712</v>
+      </c>
+      <c r="M2" t="n">
         <v>20526.0442466071</v>
       </c>
-      <c r="M2" t="n">
-        <v>20526.04424660711</v>
-      </c>
       <c r="N2" t="n">
+        <v>20526.04424660708</v>
+      </c>
+      <c r="O2" t="n">
         <v>20526.04424660709</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>20526.0442466071</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20526.04424660711</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26384,22 +26384,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.51210371258</v>
+        <v>54505.51210371252</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371256</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90335.72423892131</v>
+        <v>90335.72423892135</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
-        <v>787.79369057589</v>
+        <v>787.7936905758927</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905759312</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905759054</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>23206.58093189642</v>
+        <v>23206.58093189635</v>
       </c>
       <c r="J4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189641</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="L4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="M4" t="n">
+        <v>23206.58093189632</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23206.58093189633</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23206.58093189634</v>
+      </c>
+      <c r="P4" t="n">
         <v>23206.58093189636</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23206.58093189635</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23206.58093189636</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23206.58093189634</v>
       </c>
     </row>
     <row r="5">
@@ -26476,37 +26476,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744770.7571690551</v>
+        <v>-744984.1691589336</v>
       </c>
       <c r="C6" t="n">
         <v>-201392.1729974214</v>
@@ -26528,37 +26528,37 @@
         <v>-201392.1729974214</v>
       </c>
       <c r="E6" t="n">
-        <v>-598383.7031293032</v>
+        <v>-598481.1622552753</v>
       </c>
       <c r="F6" t="n">
-        <v>-73223.66665240708</v>
+        <v>-73321.12577837924</v>
       </c>
       <c r="G6" t="n">
-        <v>-73223.6666524071</v>
+        <v>-73321.12577837922</v>
       </c>
       <c r="H6" t="n">
-        <v>-73223.66665240706</v>
+        <v>-73321.12577837921</v>
       </c>
       <c r="I6" t="n">
-        <v>-154901.1546090273</v>
+        <v>-154901.1546090271</v>
       </c>
       <c r="J6" t="n">
-        <v>-276818.8616979076</v>
+        <v>-276818.8616979075</v>
       </c>
       <c r="K6" t="n">
-        <v>-100395.6425053147</v>
+        <v>-100395.6425053146</v>
       </c>
       <c r="L6" t="n">
-        <v>-100395.6425053148</v>
+        <v>-100395.6425053146</v>
       </c>
       <c r="M6" t="n">
-        <v>-235196.6577391518</v>
+        <v>-235196.6577391519</v>
       </c>
       <c r="N6" t="n">
         <v>-154901.1546090272</v>
       </c>
       <c r="O6" t="n">
-        <v>-100395.6425053146</v>
+        <v>-100395.6425053147</v>
       </c>
       <c r="P6" t="n">
         <v>-100395.6425053146</v>
@@ -26704,28 +26704,28 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="P2" t="n">
         <v>68.13189012964068</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26744,37 +26744,37 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541003</v>
@@ -26926,7 +26926,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27163,7 +27163,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964072</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27385,16 +27385,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>137.5335707426982</v>
+        <v>95.40002530456692</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,7 +27546,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27555,10 +27555,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,19 +27591,19 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27622,13 +27622,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>19.03887104680234</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,10 +27676,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.3562294489151</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27786,16 +27786,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>64.93143225740819</v>
+        <v>53.68181935401351</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>176.675856761323</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,10 +27862,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>239.4792423952368</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,22 +28017,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>112.4134769673261</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>43.97002962372804</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28327,7 +28327,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28852,7 +28852,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>7.958078640513122e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31139,28 +31139,28 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>195.5988322391985</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>73.87984549392695</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>35.71704454958012</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
-        <v>262.8661621011622</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32081,22 +32081,22 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>425.8974584957643</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,28 +32303,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32333,16 +32333,16 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.85199691801321</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,31 +32555,31 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>388.7495965461102</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,28 +32777,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>212.6272478467034</v>
+        <v>241.4090972701574</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -32813,10 +32813,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,31 +32874,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647508</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622982</v>
+        <v>249.7780505767163</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,31 +33111,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U29" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,25 +33251,25 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H30" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358984</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -33281,16 +33281,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33351,10 +33351,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O31" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P31" t="n">
         <v>181.1050413469073</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S31" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927201</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U32" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>0.9375118102115607</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458548</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>143.8894692628929</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33588,10 +33588,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P34" t="n">
         <v>181.1050413469073</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041505</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U35" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>330.1172231204812</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458548</v>
+        <v>241.4090972701575</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33825,10 +33825,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P37" t="n">
         <v>181.1050413469073</v>
@@ -33837,16 +33837,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,16 +33883,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33901,7 +33901,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33910,7 +33910,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33919,7 +33919,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,7 +33962,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33971,37 +33971,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>171.3135836203299</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34062,7 +34062,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34074,16 +34074,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,37 +34208,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>171.3135836203299</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34445,22 +34445,22 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>109.8091321057579</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>543.5994944994187</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35027,10 +35027,10 @@
         <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262123</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>537.6668875337</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O12" t="n">
-        <v>120.2699176567178</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,22 +35729,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980128</v>
+        <v>773.8981207559846</v>
       </c>
       <c r="O15" t="n">
-        <v>610.3496779571404</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O18" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>153.9475105678408</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36203,25 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>256.1524206203468</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>348.0006622602202</v>
+        <v>736.7502588063304</v>
       </c>
       <c r="O21" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>536.198277674685</v>
+        <v>564.980127098139</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36522,13 +36522,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M25" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N25" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P25" t="n">
         <v>246.5154907414415</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.499584150206</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>376.4018486149359</v>
       </c>
       <c r="L27" t="n">
-        <v>143.0713543910591</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M27" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36765,10 +36765,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.129440800466</v>
+        <v>749.4684883237461</v>
       </c>
       <c r="N30" t="n">
-        <v>12.51200330570826</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O30" t="n">
         <v>251.2660748322851</v>
@@ -36929,10 +36929,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M31" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N31" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414414</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081133</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>348.9381740704318</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>213.9849829127205</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,13 +37233,13 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N34" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414414</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303347</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O36" t="n">
-        <v>581.3832979527663</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686862</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37470,16 +37470,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M37" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37543,13 +37543,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>228.7283062629105</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>494.8846134483115</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,10 +37713,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>228.7283062629105</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>494.8846134483115</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,22 +38093,22 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>201.6923476209592</v>
+        <v>342.0950976293429</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
